--- a/data/trans_orig/IP05A01-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP05A01-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECEF49FC-1EED-45D6-A874-C18596E4F9A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BE47BA4-714E-4A80-AB7F-DA1098AFC8FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BF74D459-8D70-4AA8-9B29-DA5ABF1D86D2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CE91F51F-4BF5-46A9-9370-F5F126ADB154}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="614">
   <si>
     <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2007 (Tasa respuesta: 99,81%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nada</t>
@@ -77,28 +77,28 @@
     <t>37,88%</t>
   </si>
   <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
   </si>
   <si>
     <t>46,26%</t>
   </si>
   <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>64,83%</t>
   </si>
   <si>
     <t>41,84%</t>
   </si>
   <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
   </si>
   <si>
     <t>Algo</t>
@@ -107,28 +107,28 @@
     <t>49,37%</t>
   </si>
   <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
   </si>
   <si>
     <t>46,65%</t>
   </si>
   <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
   </si>
   <si>
     <t>48,09%</t>
   </si>
   <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>60,39%</t>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>59,67%</t>
   </si>
   <si>
     <t>Mucho</t>
@@ -140,7 +140,7 @@
     <t>3,29%</t>
   </si>
   <si>
-    <t>29,6%</t>
+    <t>28,95%</t>
   </si>
   <si>
     <t>7,09%</t>
@@ -149,1735 +149,1738 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>24,06%</t>
+    <t>24,56%</t>
   </si>
   <si>
     <t>10,08%</t>
   </si>
   <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>50,47%</t>
   </si>
   <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
   </si>
   <si>
     <t>50,22%</t>
   </si>
   <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
   </si>
   <si>
     <t>50,35%</t>
   </si>
   <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>55,63%</t>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
   </si>
   <si>
     <t>41,93%</t>
   </si>
   <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
   </si>
   <si>
     <t>42,93%</t>
   </si>
   <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
   </si>
   <si>
     <t>42,41%</t>
   </si>
   <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
   </si>
   <si>
     <t>7,6%</t>
   </si>
   <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2012 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>67,63%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>69,88%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2016 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
     <t>4,32%</t>
   </si>
   <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>47,32%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>70,37%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
   </si>
   <si>
     <t>13,94%</t>
   </si>
   <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2012 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>67,88%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>60,57%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>67,77%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2015 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>64,83%</t>
-  </si>
-  <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
-  </si>
-  <si>
-    <t>64,2%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
     <t>20,5%</t>
   </si>
   <si>
     <t>15,4%</t>
   </si>
   <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
   </si>
   <si>
     <t>4,34%</t>
   </si>
   <si>
-    <t>5,91%</t>
-  </si>
-  <si>
     <t>4,97%</t>
   </si>
   <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
   </si>
 </sst>
 </file>
@@ -2289,7 +2292,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91967EA4-8966-4F69-AC93-934339C14866}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50B8710F-A349-40FC-B85B-E86F6E96B998}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3578,10 +3581,10 @@
         <v>175</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3637,7 +3640,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3658,7 +3661,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB7EB4A8-9ACB-4E87-8E3D-AC266BA2C2F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEB55C76-3914-4647-AEE6-467B10D7BC4B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3675,7 +3678,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3782,13 +3785,13 @@
         <v>22175</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
         <v>22</v>
@@ -3797,13 +3800,13 @@
         <v>19296</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M4" s="7">
         <v>46</v>
@@ -3812,13 +3815,13 @@
         <v>41471</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3833,13 +3836,13 @@
         <v>3280</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -3848,13 +3851,13 @@
         <v>3077</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -3863,13 +3866,13 @@
         <v>6357</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3887,10 +3890,10 @@
         <v>35</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3902,10 +3905,10 @@
         <v>35</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -3917,10 +3920,10 @@
         <v>35</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3988,13 +3991,13 @@
         <v>101263</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H8" s="7">
         <v>131</v>
@@ -4003,13 +4006,13 @@
         <v>93588</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M8" s="7">
         <v>274</v>
@@ -4018,13 +4021,13 @@
         <v>194851</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4039,13 +4042,13 @@
         <v>25295</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H9" s="7">
         <v>26</v>
@@ -4054,13 +4057,13 @@
         <v>19437</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M9" s="7">
         <v>62</v>
@@ -4069,13 +4072,13 @@
         <v>44732</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4090,13 +4093,13 @@
         <v>2671</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -4105,13 +4108,13 @@
         <v>3959</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -4120,13 +4123,13 @@
         <v>6630</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4194,13 +4197,13 @@
         <v>172247</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H12" s="7">
         <v>234</v>
@@ -4209,13 +4212,13 @@
         <v>150640</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M12" s="7">
         <v>485</v>
@@ -4224,13 +4227,13 @@
         <v>322887</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4245,13 +4248,13 @@
         <v>44259</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H13" s="7">
         <v>75</v>
@@ -4260,13 +4263,13 @@
         <v>49093</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M13" s="7">
         <v>138</v>
@@ -4275,13 +4278,13 @@
         <v>93351</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4296,13 +4299,13 @@
         <v>7329</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H14" s="7">
         <v>10</v>
@@ -4311,13 +4314,13 @@
         <v>6625</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>250</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M14" s="7">
         <v>20</v>
@@ -4326,13 +4329,13 @@
         <v>13955</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4400,13 +4403,13 @@
         <v>109571</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H16" s="7">
         <v>167</v>
@@ -4415,13 +4418,13 @@
         <v>108577</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M16" s="7">
         <v>335</v>
@@ -4430,13 +4433,13 @@
         <v>218149</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4451,13 +4454,13 @@
         <v>44812</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H17" s="7">
         <v>55</v>
@@ -4466,13 +4469,13 @@
         <v>34550</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M17" s="7">
         <v>125</v>
@@ -4481,13 +4484,13 @@
         <v>79362</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4502,13 +4505,13 @@
         <v>11602</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>89</v>
+        <v>274</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="H18" s="7">
         <v>20</v>
@@ -4517,13 +4520,13 @@
         <v>12248</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M18" s="7">
         <v>37</v>
@@ -4532,13 +4535,13 @@
         <v>23850</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4606,13 +4609,13 @@
         <v>126219</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="H20" s="7">
         <v>156</v>
@@ -4621,13 +4624,13 @@
         <v>118826</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="M20" s="7">
         <v>327</v>
@@ -4636,13 +4639,13 @@
         <v>245045</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4657,13 +4660,13 @@
         <v>61192</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="H21" s="7">
         <v>83</v>
@@ -4672,13 +4675,13 @@
         <v>63829</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="M21" s="7">
         <v>166</v>
@@ -4687,13 +4690,13 @@
         <v>125021</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4708,13 +4711,13 @@
         <v>20985</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H22" s="7">
         <v>35</v>
@@ -4723,13 +4726,13 @@
         <v>26877</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M22" s="7">
         <v>64</v>
@@ -4738,13 +4741,13 @@
         <v>47862</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4812,13 +4815,13 @@
         <v>531476</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H24" s="7">
         <v>710</v>
@@ -4827,13 +4830,13 @@
         <v>490926</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>262</v>
+        <v>314</v>
       </c>
       <c r="M24" s="7">
         <v>1467</v>
@@ -4842,13 +4845,13 @@
         <v>1022402</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4863,13 +4866,13 @@
         <v>178837</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="H25" s="7">
         <v>243</v>
@@ -4878,13 +4881,13 @@
         <v>169987</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="M25" s="7">
         <v>499</v>
@@ -4893,13 +4896,13 @@
         <v>348825</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4914,13 +4917,13 @@
         <v>42587</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>224</v>
+        <v>329</v>
       </c>
       <c r="H26" s="7">
         <v>71</v>
@@ -4929,13 +4932,13 @@
         <v>49709</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="M26" s="7">
         <v>131</v>
@@ -4944,13 +4947,13 @@
         <v>92297</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5006,7 +5009,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5027,7 +5030,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACBE5FB0-BE72-41FF-A2C4-117FB8F99E92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F8339D-D7BB-4706-9F13-33B165440E3A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5044,7 +5047,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5151,13 +5154,13 @@
         <v>24002</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="H4" s="7">
         <v>23</v>
@@ -5166,13 +5169,13 @@
         <v>21497</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="M4" s="7">
         <v>51</v>
@@ -5181,13 +5184,13 @@
         <v>45499</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5202,13 +5205,13 @@
         <v>1047</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -5217,13 +5220,13 @@
         <v>1030</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -5232,13 +5235,13 @@
         <v>2077</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>61</v>
+        <v>349</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5253,13 +5256,13 @@
         <v>525</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5271,10 +5274,10 @@
         <v>35</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -5283,13 +5286,13 @@
         <v>525</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5357,13 +5360,13 @@
         <v>101244</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="H8" s="7">
         <v>137</v>
@@ -5372,13 +5375,13 @@
         <v>92619</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="M8" s="7">
         <v>273</v>
@@ -5387,13 +5390,13 @@
         <v>193863</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5408,13 +5411,13 @@
         <v>14428</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="H9" s="7">
         <v>24</v>
@@ -5423,13 +5426,13 @@
         <v>17086</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="M9" s="7">
         <v>44</v>
@@ -5438,13 +5441,13 @@
         <v>31514</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5459,13 +5462,13 @@
         <v>6831</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -5474,13 +5477,13 @@
         <v>1475</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>226</v>
+        <v>376</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -5489,13 +5492,13 @@
         <v>8306</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>373</v>
+        <v>38</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>375</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5563,13 +5566,13 @@
         <v>171577</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="H12" s="7">
         <v>249</v>
@@ -5578,13 +5581,13 @@
         <v>154134</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="M12" s="7">
         <v>503</v>
@@ -5593,13 +5596,13 @@
         <v>325711</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5614,13 +5617,13 @@
         <v>40894</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="H13" s="7">
         <v>72</v>
@@ -5629,13 +5632,13 @@
         <v>45124</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="M13" s="7">
         <v>132</v>
@@ -5644,13 +5647,13 @@
         <v>86018</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5665,13 +5668,13 @@
         <v>11889</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="H14" s="7">
         <v>13</v>
@@ -5680,13 +5683,13 @@
         <v>7989</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>192</v>
+        <v>399</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="M14" s="7">
         <v>31</v>
@@ -5695,13 +5698,13 @@
         <v>19877</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5769,13 +5772,13 @@
         <v>109664</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>282</v>
+        <v>405</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="H16" s="7">
         <v>166</v>
@@ -5784,13 +5787,13 @@
         <v>99512</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="M16" s="7">
         <v>331</v>
@@ -5799,13 +5802,13 @@
         <v>209176</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>406</v>
+        <v>16</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5820,13 +5823,13 @@
         <v>47881</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="H17" s="7">
         <v>77</v>
@@ -5835,13 +5838,13 @@
         <v>46959</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="M17" s="7">
         <v>147</v>
@@ -5850,13 +5853,13 @@
         <v>94840</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5871,13 +5874,13 @@
         <v>9129</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>420</v>
+        <v>173</v>
       </c>
       <c r="H18" s="7">
         <v>16</v>
@@ -5886,13 +5889,13 @@
         <v>9526</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="M18" s="7">
         <v>29</v>
@@ -5901,13 +5904,13 @@
         <v>18654</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>424</v>
+        <v>252</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5975,13 +5978,13 @@
         <v>134971</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="H20" s="7">
         <v>201</v>
@@ -5990,13 +5993,13 @@
         <v>148828</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="M20" s="7">
         <v>388</v>
@@ -6005,13 +6008,13 @@
         <v>283799</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6026,13 +6029,13 @@
         <v>57188</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>392</v>
+        <v>439</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="H21" s="7">
         <v>54</v>
@@ -6041,13 +6044,13 @@
         <v>38344</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="M21" s="7">
         <v>137</v>
@@ -6056,13 +6059,13 @@
         <v>95532</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6077,13 +6080,13 @@
         <v>13578</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>423</v>
+        <v>449</v>
       </c>
       <c r="H22" s="7">
         <v>25</v>
@@ -6092,13 +6095,13 @@
         <v>19081</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="M22" s="7">
         <v>45</v>
@@ -6107,13 +6110,13 @@
         <v>32658</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>68</v>
+        <v>455</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6181,13 +6184,13 @@
         <v>541457</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>435</v>
+        <v>456</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="H24" s="7">
         <v>776</v>
@@ -6196,13 +6199,13 @@
         <v>516591</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="M24" s="7">
         <v>1546</v>
@@ -6211,13 +6214,13 @@
         <v>1058048</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6232,13 +6235,13 @@
         <v>161437</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="H25" s="7">
         <v>228</v>
@@ -6247,13 +6250,13 @@
         <v>148543</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="M25" s="7">
         <v>462</v>
@@ -6262,13 +6265,13 @@
         <v>309980</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>237</v>
+        <v>472</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6283,13 +6286,13 @@
         <v>41950</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>325</v>
+        <v>475</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="H26" s="7">
         <v>56</v>
@@ -6298,13 +6301,13 @@
         <v>38070</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="M26" s="7">
         <v>117</v>
@@ -6313,13 +6316,13 @@
         <v>80020</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>472</v>
+        <v>331</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>474</v>
+        <v>447</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6375,7 +6378,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -6396,7 +6399,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB9B309-54FC-4BD8-AB85-2B770C68D613}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30336E36-5798-45AE-8960-E5245D24C863}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6413,7 +6416,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6520,10 +6523,10 @@
         <v>12698</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>40</v>
@@ -6535,13 +6538,13 @@
         <v>16315</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="M4" s="7">
         <v>46</v>
@@ -6550,13 +6553,13 @@
         <v>29013</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6574,10 +6577,10 @@
         <v>35</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -6586,13 +6589,13 @@
         <v>472</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -6601,13 +6604,13 @@
         <v>472</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6625,10 +6628,10 @@
         <v>35</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6640,10 +6643,10 @@
         <v>35</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -6655,10 +6658,10 @@
         <v>35</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6726,13 +6729,13 @@
         <v>106650</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="H8" s="7">
         <v>151</v>
@@ -6741,13 +6744,13 @@
         <v>92142</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="M8" s="7">
         <v>292</v>
@@ -6756,13 +6759,13 @@
         <v>198791</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6777,13 +6780,13 @@
         <v>5522</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="H9" s="7">
         <v>14</v>
@@ -6792,13 +6795,13 @@
         <v>9040</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="M9" s="7">
         <v>21</v>
@@ -6807,13 +6810,13 @@
         <v>14562</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6828,13 +6831,13 @@
         <v>2424</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>393</v>
+        <v>373</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -6843,13 +6846,13 @@
         <v>2713</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -6858,13 +6861,13 @@
         <v>5137</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6932,13 +6935,13 @@
         <v>212614</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="H12" s="7">
         <v>232</v>
@@ -6947,13 +6950,13 @@
         <v>157900</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>182</v>
+        <v>523</v>
       </c>
       <c r="M12" s="7">
         <v>531</v>
@@ -6962,13 +6965,13 @@
         <v>370515</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6983,13 +6986,13 @@
         <v>28803</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="H13" s="7">
         <v>35</v>
@@ -6998,13 +7001,13 @@
         <v>25214</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="M13" s="7">
         <v>66</v>
@@ -7013,13 +7016,13 @@
         <v>54017</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>171</v>
+        <v>533</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7034,13 +7037,13 @@
         <v>8769</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>530</v>
+        <v>503</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="H14" s="7">
         <v>13</v>
@@ -7049,13 +7052,13 @@
         <v>9237</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>533</v>
+        <v>512</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="M14" s="7">
         <v>26</v>
@@ -7064,13 +7067,13 @@
         <v>18007</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7138,13 +7141,13 @@
         <v>143554</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="H16" s="7">
         <v>183</v>
@@ -7153,13 +7156,13 @@
         <v>130708</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="M16" s="7">
         <v>368</v>
@@ -7168,13 +7171,13 @@
         <v>274262</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7189,13 +7192,13 @@
         <v>24256</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>548</v>
+        <v>88</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="H17" s="7">
         <v>33</v>
@@ -7204,13 +7207,13 @@
         <v>30784</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="M17" s="7">
         <v>67</v>
@@ -7219,13 +7222,13 @@
         <v>55039</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>276</v>
+        <v>558</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7240,13 +7243,13 @@
         <v>5398</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="H18" s="7">
         <v>11</v>
@@ -7255,13 +7258,13 @@
         <v>7244</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="M18" s="7">
         <v>17</v>
@@ -7270,13 +7273,13 @@
         <v>12642</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>563</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7344,13 +7347,13 @@
         <v>107245</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="H20" s="7">
         <v>167</v>
@@ -7359,13 +7362,13 @@
         <v>117041</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>569</v>
+        <v>382</v>
       </c>
       <c r="M20" s="7">
         <v>314</v>
@@ -7374,13 +7377,13 @@
         <v>224286</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7395,13 +7398,13 @@
         <v>43375</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>22</v>
+        <v>578</v>
       </c>
       <c r="H21" s="7">
         <v>58</v>
@@ -7410,13 +7413,13 @@
         <v>44606</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="M21" s="7">
         <v>117</v>
@@ -7425,13 +7428,13 @@
         <v>87980</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>580</v>
+        <v>298</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7446,13 +7449,13 @@
         <v>23494</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>581</v>
+        <v>531</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -7461,13 +7464,13 @@
         <v>9125</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="M22" s="7">
         <v>45</v>
@@ -7476,13 +7479,13 @@
         <v>32619</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>34</v>
+        <v>589</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7550,13 +7553,13 @@
         <v>582762</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="H24" s="7">
         <v>760</v>
@@ -7565,13 +7568,13 @@
         <v>514105</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="M24" s="7">
         <v>1551</v>
@@ -7580,13 +7583,13 @@
         <v>1096868</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7601,13 +7604,13 @@
         <v>101955</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="H25" s="7">
         <v>141</v>
@@ -7616,13 +7619,13 @@
         <v>110115</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="M25" s="7">
         <v>272</v>
@@ -7631,13 +7634,13 @@
         <v>212071</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>605</v>
+        <v>391</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7652,13 +7655,13 @@
         <v>40085</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>472</v>
+        <v>331</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="H26" s="7">
         <v>41</v>
@@ -7667,13 +7670,13 @@
         <v>28319</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>399</v>
+        <v>423</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>609</v>
+        <v>454</v>
       </c>
       <c r="M26" s="7">
         <v>95</v>
@@ -7682,13 +7685,13 @@
         <v>68404</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7744,7 +7747,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
